--- a/AvaTrade/TestCases/TestCasesWeb.xlsx
+++ b/AvaTrade/TestCases/TestCasesWeb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\AvaTrade\AvaTrade\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59BC4CD-2D45-4D61-B3E3-FC59C815182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEEF7B-2D6D-4F00-A3A8-4FC65C9373EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{ECAFEE5A-79B8-479B-98D5-5FC80A525F43}"/>
   </bookViews>
@@ -33,9 +33,359 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>SIGNUP-001</t>
+  </si>
+  <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Test Name:</t>
+  </si>
+  <si>
+    <t>Test Summary/Description:</t>
+  </si>
+  <si>
+    <t>This test case verifies that the user is able to complete registration flow with valid data</t>
+  </si>
+  <si>
+    <t>Pre-conditions:</t>
+  </si>
+  <si>
+    <t>The user should not be logged in to the website. 
+The homepage should be opened
+Sign Up button should be displayed.</t>
+  </si>
+  <si>
+    <t>Test Steps:</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Expected result:</t>
+  </si>
+  <si>
+    <t>Click on the Sign Up button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t>The Sign Up popup should be displayed with the "Email" field, "Password" field, "Have a partner code" link, "Corporate account" link, and "Create My Account" button.</t>
+  </si>
+  <si>
+    <t>User fills next field by data:
+"Email" - {validEmail}
+"Pasword" - {validPassword}</t>
+  </si>
+  <si>
+    <t>Validation error messages are not displayed
+"Create My Account" button is enabled</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>User clicks "Create My Account" button</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to complete registration with valid information (Country = "Afghanistan")</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>"Submit" button is enabled</t>
+  </si>
+  <si>
+    <t>User clicks "Or Enter Address Manually" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User fills next field by data:
+"First Name" - {validFirstName}
+"Last Name" - {validLastName}
+"Date of Birth" - {validDate}
+"Country" - "Afghanistan"
+"Phone number" - {validNumber}
+</t>
+  </si>
+  <si>
+    <t>User fills next field by data:
+"City" - {city}
+"Street Name" - {street}
+"Street Number" - {streetNumber}
+"Apartment, Suite, Unit Etc." -{apartment}
+"Zip" - {validZip}</t>
+  </si>
+  <si>
+    <t>Next fields are displayed:
+"City"
+"Street Name"
+"Street Number"
+"Apartment, Suite, Unit Etc."
+"Zip"</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>User clicks "Submit" button</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Personal Details" step on sign up popup is displayed </t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>User fills all fields by random options</t>
+  </si>
+  <si>
+    <t>"Financial Details" step on sign up popup is displayed 
+Next fields are displayed:
+"Principal Occupation"
+"Estimated income"
+"Total estimated value"
+"Intended amount every year"
+"Employment status"
+"Source of Trading funds"
+"Trading Platform"
+"Base Currency"</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>User switches the toggle "I have read, understood and accepted the" to enable state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Terms &amp; Conditions" step on sign up popup is displayed
+"Complete Registration" button is disabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Complete Registration" button is enabled </t>
+  </si>
+  <si>
+    <t>User clicks "Complete Registration" button</t>
+  </si>
+  <si>
+    <t>"Make your deposit" sidepanel is disaplyed</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>SIGNUP-002</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to complete registration with valid information (Country = "France")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User fills next field by data:
+"First Name" - {validFirstName}
+"Last Name" - {validLastName}
+"Date of Birth" - {validDate}
+"Country" - "France"
+"Phone number" - {validNumber}
+</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>"Financial Details" step on sign up popup is displayed 
+Next fields are displayed:
+"Principal Occupation"
+"Employment status"
+"Estimated income"
+"Total estimated value"
+"Intended amount every year"
+"Source of Trading funds"</t>
+  </si>
+  <si>
+    <t>"Trading Experience &amp; Knowledge" step on sign up popup is displayed 
+Next fields are displayed:
+"How many times have you traded on margin in Forex/CFDs/Spread Betting/Options in the past year?"
+"Please provide an estimate of the average volume of those trades."
+"Have you ever participated in trading education or have any professional experience/qualifications which would assist your understanding of our services?"
+"When trading with Leverage which one of the following applies?"
+"If you are trading with 50:1 leverage and you have $1,000 in your account, what is the maximum-size position you can open?"
+"Trading Platform"
+"Base Currency"
+"Why do you wish to trade with us?"
+"Agree risks" checkbox</t>
+  </si>
+  <si>
+    <t>User clicks "Agree risks" checkbox</t>
+  </si>
+  <si>
+    <t>"Warning" popup is disaplyed</t>
+  </si>
+  <si>
+    <t>User clicks "I Agree" button</t>
+  </si>
+  <si>
+    <t>"Almost There" popup is displayed</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>SIGNUP-003</t>
+  </si>
+  <si>
+    <t>Verify that the user is not able to sign up without entering all the required fields</t>
+  </si>
+  <si>
+    <t>This test case verifies that the user is not able to sign up without entering all the required fields in the Sign Up popup on the website's homepage.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>The Sign Up popup should be displayed with the "Email" field and "Password" field.</t>
+  </si>
+  <si>
+    <t>Leave the "Email" field blank. 
+Enter a valid password in the "Password" field.</t>
+  </si>
+  <si>
+    <t>Create My Account button is disabled</t>
+  </si>
+  <si>
+    <t>Leave the "Password" field blank. 
+Enter a valid enail in the "Email" field.</t>
+  </si>
+  <si>
+    <t>"Please enter a valid email" message is displayed
+Create My Account button is disabled</t>
+  </si>
+  <si>
+    <t>"Please enter a password" message is displayed
+Create My Account button is disabled</t>
+  </si>
+  <si>
+    <t>SIGNUP-004</t>
+  </si>
+  <si>
+    <t>Verify that the optional "Partner code" field is displayed when the user clicks on the "Have a partner code" link</t>
+  </si>
+  <si>
+    <t>This test case verifies that the optional "Partner code" field is displayed when the user clicks on the "Have a partner code" link in the Sign Up popup</t>
+  </si>
+  <si>
+    <t>The Sign Up popup should be displayed with the "Have a partner code" link.</t>
+  </si>
+  <si>
+    <t>Click on the "Have a partner code" link.</t>
+  </si>
+  <si>
+    <t>The "Partner code" field should be displayed.</t>
+  </si>
+  <si>
+    <t>SIGNUP-005</t>
+  </si>
+  <si>
+    <t>Verify that the "Corporate account" link opens the instruction PDF</t>
+  </si>
+  <si>
+    <t>This test case verifies that the "Corporate account" link opens the instruction PDF</t>
+  </si>
+  <si>
+    <t>The Sign Up popup should be displayed with the "Corporate account" link.</t>
+  </si>
+  <si>
+    <t>Click on the "Corporate account" link.</t>
+  </si>
+  <si>
+    <t>The instruction PDF should be opened in a new tab.</t>
+  </si>
+  <si>
+    <t>SIGNUP-006</t>
+  </si>
+  <si>
+    <t>Verify that the user is not able to sign up with invalid email format</t>
+  </si>
+  <si>
+    <t>This test case verifies that the user is not able to sign up with an invalid email format in the "Email" field of the Sign Up popup</t>
+  </si>
+  <si>
+    <t>The Sign Up popup should be displayed with the "Email" field.</t>
+  </si>
+  <si>
+    <t>Enter a valid password in the "Password" field.</t>
+  </si>
+  <si>
+    <t>Enter an invalid email address format in the "Email" field:
+"test@test" 
+"test@.com".</t>
+  </si>
+  <si>
+    <t>"Please enter a valid email" message is displayed</t>
+  </si>
+  <si>
+    <t>SIGNUP-007</t>
+  </si>
+  <si>
+    <t>Verify that the user is not able to sign up with a weak password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This test case verifies that the user is not able to sign up with a weak password in the "Password" field of the Sign Up popup</t>
+  </si>
+  <si>
+    <t>The Sign Up popup should be displayed with the "Password" field.</t>
+  </si>
+  <si>
+    <t>Enter a valid email address in the "Email" field.</t>
+  </si>
+  <si>
+    <t>Enter a weak password in the "Password" field:
+"test"
+"123456"</t>
+  </si>
+  <si>
+    <t>Error message is displayed
+Your password needs to include:
+At least 8 characters
+Use lower- and upper-case characters. Do not include your name. Special case characters (_!@#$%^&amp;*) are allowed.
+At least one number</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +394,50 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -61,12 +445,223 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -381,12 +976,866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94165CE-A91C-43F4-9BDD-F8E8627EFC9E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="26"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="26"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AvaTrade/TestCases/TestCasesWeb.xlsx
+++ b/AvaTrade/TestCases/TestCasesWeb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\AvaTrade\AvaTrade\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEEF7B-2D6D-4F00-A3A8-4FC65C9373EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96305B52-1B30-443F-8158-656AEBC3A470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{ECAFEE5A-79B8-479B-98D5-5FC80A525F43}"/>
   </bookViews>
@@ -979,7 +979,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
